--- a/data/Daniel NavaT3-2025.xlsx
+++ b/data/Daniel NavaT3-2025.xlsx
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>10.50360981</v>
+        <v>0.7106775700000002</v>
       </c>
     </row>
   </sheetData>
